--- a/data_selection/result/地区生产总值-江门-解释变量V1-先行V1.xlsx
+++ b/data_selection/result/地区生产总值-江门-解释变量V1-先行V1.xlsx
@@ -821,67 +821,67 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>拥堵延时指数:江门:月:同比</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>全员劳动生产率</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>出厂价:普通水泥:42.5级散装:江门海螺:月:同比</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>期末移动电话用户数</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>工业用电量</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>工业用水量</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>工业销售产值</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>轻工业出厂价格指数</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>消费品价格指数</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>出口交货值</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>价格:普通水泥:42.5级参考:广东:江门:同比</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>货运周转量</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>全社会用电量</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>货运周转量</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>全员劳动生产率</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>拥堵延时指数:江门:月:同比</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>轻工业出厂价格指数</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>工业用水量</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>工业销售产值</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>工业用电量</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>出厂价:普通水泥:42.5级散装:江门海螺:月:同比</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>期末移动电话用户数</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>出口交货值</t>
         </is>
       </c>
     </row>
@@ -946,43 +946,43 @@
         <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
@@ -1009,38 +1009,38 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-2.67</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="AB3" t="n">
         <v>3.3</v>
       </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6</v>
-      </c>
-      <c r="X3" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>-2.67</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>10</v>
-      </c>
       <c r="AC3" t="n">
-        <v>4.18</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
-        <v>-0.8</v>
+        <v>6</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="4">
@@ -1071,38 +1071,38 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AB4" t="n">
         <v>3.5</v>
       </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>-3.88</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>9.9</v>
-      </c>
       <c r="AC4" t="n">
-        <v>2.69</v>
+        <v>8.1</v>
       </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="n">
-        <v>-1.1</v>
+        <v>6.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.1</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="5">
@@ -1145,38 +1145,38 @@
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="n">
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-3.84</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AB5" t="n">
         <v>3.4</v>
       </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X5" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>-3.84</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>8</v>
-      </c>
       <c r="AC5" t="n">
-        <v>4.23</v>
+        <v>5</v>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
-        <v>-1</v>
+        <v>6.2</v>
       </c>
       <c r="AF5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="6">
@@ -1221,38 +1221,38 @@
       <c r="S6" t="n">
         <v>-1.5836</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="AB6" t="n">
         <v>3.1</v>
       </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>-3.88</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>7.1</v>
-      </c>
       <c r="AC6" t="n">
-        <v>4.99</v>
+        <v>4</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>-0.8</v>
+        <v>6.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="7">
@@ -1297,38 +1297,38 @@
       <c r="S7" t="n">
         <v>-0.3727</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-4.69</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AB7" t="n">
         <v>3</v>
       </c>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>-4.69</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>7.7</v>
-      </c>
       <c r="AC7" t="n">
-        <v>5.18</v>
+        <v>5</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>-0.9</v>
+        <v>6.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="8">
@@ -1381,38 +1381,38 @@
       <c r="S8" t="n">
         <v>0.1191</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AB8" t="n">
         <v>2.8</v>
       </c>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="X8" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>-4.1</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AC8" t="n">
-        <v>4.66</v>
+        <v>4.8</v>
       </c>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="n">
-        <v>-1.3</v>
+        <v>6.6</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="9">
@@ -1467,38 +1467,38 @@
       <c r="S9" t="n">
         <v>0.9871</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-3.98</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AB9" t="n">
         <v>2.7</v>
       </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X9" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>-3.98</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AC9" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="n">
-        <v>-1.9</v>
+        <v>6.8</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="10">
@@ -1553,38 +1553,38 @@
       <c r="S10" t="n">
         <v>1.8101</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-4.01</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="AB10" t="n">
         <v>2.6</v>
       </c>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X10" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>-4.01</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AC10" t="n">
-        <v>2.83</v>
+        <v>3.5</v>
       </c>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="n">
-        <v>0.2</v>
+        <v>6.8</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="11">
@@ -1641,38 +1641,38 @@
       <c r="S11" t="n">
         <v>2.4336</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AB11" t="n">
         <v>2.6</v>
       </c>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="W11" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="X11" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>-3.06</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>7.1</v>
-      </c>
       <c r="AC11" t="n">
-        <v>3.57</v>
+        <v>3</v>
       </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>0.6</v>
+        <v>6.7</v>
       </c>
       <c r="AF11" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="12">
@@ -1729,38 +1729,38 @@
       <c r="S12" t="n">
         <v>3.234</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-2.76</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
         <v>2.6</v>
       </c>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="W12" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="X12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>-2.76</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AC12" t="n">
-        <v>4.05</v>
+        <v>1</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>1.4</v>
+        <v>6.9</v>
       </c>
       <c r="AF12" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="13">
@@ -1813,38 +1813,38 @@
       <c r="S13" t="n">
         <v>5.9075</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="n">
+        <v>13</v>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-6.87</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AB13" t="n">
         <v>0.7</v>
       </c>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="W13" t="n">
-        <v>5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>-6.87</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>12.4</v>
-      </c>
       <c r="AC13" t="n">
-        <v>2.14</v>
+        <v>2.8</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="14">
@@ -1903,38 +1903,38 @@
       <c r="S14" t="n">
         <v>7.3708</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AB14" t="n">
         <v>0.4</v>
       </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="W14" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="X14" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>12.6</v>
-      </c>
       <c r="AC14" t="n">
-        <v>13.79</v>
+        <v>4.3</v>
       </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.3</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="15">
@@ -1997,38 +1997,38 @@
       <c r="S15" t="n">
         <v>10.6</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X15" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AB15" t="n">
         <v>0.3</v>
       </c>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>12.2</v>
-      </c>
       <c r="AC15" t="n">
-        <v>14.22</v>
+        <v>3.5</v>
       </c>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="n">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.5</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="16">
@@ -2091,38 +2091,38 @@
       <c r="S16" t="n">
         <v>9.42</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>8</v>
+      </c>
+      <c r="X16" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AB16" t="n">
         <v>0.4</v>
       </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="W16" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="X16" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>12</v>
-      </c>
       <c r="AC16" t="n">
-        <v>9.93</v>
+        <v>6.7</v>
       </c>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="n">
-        <v>8</v>
+        <v>5.4</v>
       </c>
       <c r="AF16" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="17">
@@ -2185,38 +2185,38 @@
       <c r="S17" t="n">
         <v>12.1</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="X17" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AB17" t="n">
         <v>0.5</v>
       </c>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="W17" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="X17" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>13.3</v>
-      </c>
       <c r="AC17" t="n">
-        <v>10.04</v>
+        <v>7.4</v>
       </c>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="AF17" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="18">
@@ -2280,39 +2280,39 @@
         <v>13.6</v>
       </c>
       <c r="T18" t="n">
+        <v>2.02933494072737</v>
+      </c>
+      <c r="U18" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AB18" t="n">
         <v>0.6</v>
       </c>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="W18" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="X18" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>2.02933494072737</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>13.3</v>
-      </c>
       <c r="AC18" t="n">
-        <v>9.51</v>
+        <v>6.9</v>
       </c>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="n">
-        <v>9.1</v>
+        <v>5.7</v>
       </c>
       <c r="AF18" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="19">
@@ -2376,39 +2376,39 @@
         <v>15.9</v>
       </c>
       <c r="T19" t="n">
+        <v>-3.03091944670463</v>
+      </c>
+      <c r="U19" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="X19" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AB19" t="n">
         <v>0.7</v>
       </c>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="X19" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>-3.03091944670463</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>13.8</v>
-      </c>
       <c r="AC19" t="n">
-        <v>9.26</v>
+        <v>7</v>
       </c>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="n">
-        <v>9.699999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="AF19" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="20">
@@ -2472,39 +2472,39 @@
         <v>16.63</v>
       </c>
       <c r="T20" t="n">
+        <v>-5.72390572390571</v>
+      </c>
+      <c r="U20" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="X20" t="n">
+        <v>9.342205999999999</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AB20" t="n">
         <v>0.7</v>
       </c>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="W20" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="X20" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>-5.72390572390571</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>14.8</v>
-      </c>
       <c r="AC20" t="n">
-        <v>9.342205999999999</v>
+        <v>7.3</v>
       </c>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="n">
-        <v>10.4</v>
+        <v>8.6</v>
       </c>
       <c r="AF20" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="21">
@@ -2568,43 +2568,43 @@
         <v>18.18</v>
       </c>
       <c r="T21" t="n">
+        <v>-5.31701444622794</v>
+      </c>
+      <c r="U21" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="V21" t="n">
+        <v>11.6010854816825</v>
+      </c>
+      <c r="W21" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="X21" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AB21" t="n">
         <v>0.8</v>
       </c>
-      <c r="U21" t="n">
+      <c r="AC21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD21" t="n">
         <v>1.17647058823529</v>
       </c>
-      <c r="V21" t="n">
+      <c r="AE21" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AF21" t="n">
         <v>7.2</v>
-      </c>
-      <c r="W21" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="X21" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>-5.31701444622794</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>11.6010854816825</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2668,41 +2668,41 @@
         <v>19.16</v>
       </c>
       <c r="T22" t="n">
+        <v>-7.55512943432406</v>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="n">
+        <v>5.63816604708798</v>
+      </c>
+      <c r="W22" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="X22" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AB22" t="n">
         <v>0.8</v>
       </c>
-      <c r="U22" t="n">
+      <c r="AC22" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD22" t="n">
         <v>-4.81283422459893</v>
       </c>
-      <c r="V22" t="n">
+      <c r="AE22" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AF22" t="n">
         <v>7.1</v>
-      </c>
-      <c r="W22" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="n">
-        <v>-7.55512943432406</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>5.63816604708798</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>7.8</v>
       </c>
     </row>
     <row r="23">
@@ -2765,29 +2765,29 @@
       <c r="S23" t="n">
         <v>18.71</v>
       </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="n">
-        <v>5.27777777777778</v>
-      </c>
+      <c r="T23" t="n">
+        <v>-7.56715853197122</v>
+      </c>
+      <c r="U23" t="inlineStr"/>
       <c r="V23" t="n">
-        <v>7.1</v>
+        <v>12.879164594729</v>
       </c>
       <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="n">
-        <v>-7.56715853197122</v>
-      </c>
+      <c r="X23" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="n">
-        <v>8.4</v>
-      </c>
+      <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="n">
-        <v>12.879164594729</v>
+        <v>5.27777777777778</v>
       </c>
       <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
+      <c r="AF23" t="n">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2850,43 +2850,43 @@
         <v>18.89</v>
       </c>
       <c r="T24" t="n">
+        <v>-11.1499068901304</v>
+      </c>
+      <c r="U24" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="W24" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="X24" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AB24" t="n">
         <v>1.8</v>
       </c>
-      <c r="U24" t="n">
+      <c r="AC24" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AD24" t="n">
         <v>16.71388101983</v>
       </c>
-      <c r="V24" t="n">
+      <c r="AE24" t="n">
+        <v>-13</v>
+      </c>
+      <c r="AF24" t="n">
         <v>7.9</v>
-      </c>
-      <c r="W24" t="n">
-        <v>-13</v>
-      </c>
-      <c r="X24" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>-11.1499068901304</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>22.51</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>13.36</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>21.3</v>
       </c>
     </row>
     <row r="25">
@@ -2946,43 +2946,43 @@
         <v>17.81</v>
       </c>
       <c r="T25" t="n">
+        <v>-8.328445747800609</v>
+      </c>
+      <c r="U25" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>12.3762376237624</v>
+      </c>
+      <c r="W25" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AB25" t="n">
         <v>1.5</v>
       </c>
-      <c r="U25" t="n">
+      <c r="AC25" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="AD25" t="n">
         <v>14.1643059490085</v>
       </c>
-      <c r="V25" t="n">
+      <c r="AE25" t="n">
+        <v>-11.7</v>
+      </c>
+      <c r="AF25" t="n">
         <v>6.6</v>
-      </c>
-      <c r="W25" t="n">
-        <v>-11.7</v>
-      </c>
-      <c r="X25" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>-8.328445747800609</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>12.3762376237624</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>12.9</v>
       </c>
     </row>
     <row r="26">
@@ -3032,43 +3032,43 @@
         <v>15.63</v>
       </c>
       <c r="T26" t="n">
+        <v>-5.10725229826352</v>
+      </c>
+      <c r="U26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>7.87878787878788</v>
+      </c>
+      <c r="W26" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="X26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AB26" t="n">
         <v>1.2</v>
       </c>
-      <c r="U26" t="n">
+      <c r="AC26" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="AD26" t="n">
         <v>11.3888888888889</v>
       </c>
-      <c r="V26" t="n">
+      <c r="AE26" t="n">
+        <v>-11.3</v>
+      </c>
+      <c r="AF26" t="n">
         <v>6.4</v>
-      </c>
-      <c r="W26" t="n">
-        <v>-11.3</v>
-      </c>
-      <c r="X26" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>-5.10725229826352</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>7.87878787878788</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>12.4</v>
       </c>
     </row>
     <row r="27">
@@ -3132,43 +3132,43 @@
         <v>16.45</v>
       </c>
       <c r="T27" t="n">
+        <v>-6.90937561166569</v>
+      </c>
+      <c r="U27" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>9.75609756097561</v>
+      </c>
+      <c r="W27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="X27" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB27" t="n">
         <v>1</v>
       </c>
-      <c r="U27" t="n">
+      <c r="AC27" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="AD27" t="n">
         <v>13.1284916201117</v>
       </c>
-      <c r="V27" t="n">
+      <c r="AE27" t="n">
+        <v>-13.1</v>
+      </c>
+      <c r="AF27" t="n">
         <v>9.5</v>
-      </c>
-      <c r="W27" t="n">
-        <v>-13.1</v>
-      </c>
-      <c r="X27" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>-6.90937561166569</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>9.75609756097561</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>12.2</v>
       </c>
     </row>
     <row r="28">
@@ -3232,43 +3232,43 @@
         <v>14.22</v>
       </c>
       <c r="T28" t="n">
+        <v>-9.208432776451851</v>
+      </c>
+      <c r="U28" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="V28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="X28" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB28" t="n">
         <v>1</v>
       </c>
-      <c r="U28" t="n">
+      <c r="AC28" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="AD28" t="n">
         <v>15.3846153846154</v>
       </c>
-      <c r="V28" t="n">
+      <c r="AE28" t="n">
+        <v>-12.1</v>
+      </c>
+      <c r="AF28" t="n">
         <v>7.4</v>
-      </c>
-      <c r="W28" t="n">
-        <v>-12.1</v>
-      </c>
-      <c r="X28" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>-9.208432776451851</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>12.2</v>
       </c>
     </row>
     <row r="29">
@@ -3324,43 +3324,43 @@
         <v>11.3</v>
       </c>
       <c r="T29" t="n">
+        <v>-11.5596691610871</v>
+      </c>
+      <c r="U29" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W29" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="X29" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AB29" t="n">
         <v>1.1</v>
       </c>
-      <c r="U29" t="n">
+      <c r="AC29" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="AD29" t="n">
         <v>16.7146974063401</v>
       </c>
-      <c r="V29" t="n">
+      <c r="AE29" t="n">
+        <v>-10.9</v>
+      </c>
+      <c r="AF29" t="n">
         <v>7.7</v>
-      </c>
-      <c r="W29" t="n">
-        <v>-10.9</v>
-      </c>
-      <c r="X29" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>-11.5596691610871</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>13.4</v>
       </c>
     </row>
     <row r="30">
@@ -3424,43 +3424,43 @@
         <v>9.550000000000001</v>
       </c>
       <c r="T30" t="n">
+        <v>-4.25844346549191</v>
+      </c>
+      <c r="U30" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="V30" t="n">
+        <v>41.875</v>
+      </c>
+      <c r="W30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="X30" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AB30" t="n">
         <v>1.3</v>
       </c>
-      <c r="U30" t="n">
+      <c r="AC30" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="AD30" t="n">
         <v>17.5792507204611</v>
       </c>
-      <c r="V30" t="n">
+      <c r="AE30" t="n">
+        <v>-10.6</v>
+      </c>
+      <c r="AF30" t="n">
         <v>7.6</v>
-      </c>
-      <c r="W30" t="n">
-        <v>-10.6</v>
-      </c>
-      <c r="X30" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>-4.25844346549191</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>41.875</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>13.3</v>
       </c>
     </row>
     <row r="31">
@@ -3524,43 +3524,43 @@
         <v>8.18</v>
       </c>
       <c r="T31" t="n">
+        <v>-2.28991596638653</v>
+      </c>
+      <c r="U31" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-5.05050505050505</v>
+      </c>
+      <c r="W31" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="X31" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AB31" t="n">
         <v>1.5</v>
       </c>
-      <c r="U31" t="n">
+      <c r="AC31" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="AD31" t="n">
         <v>25.3731343283582</v>
       </c>
-      <c r="V31" t="n">
+      <c r="AE31" t="n">
+        <v>-12.6</v>
+      </c>
+      <c r="AF31" t="n">
         <v>6.1</v>
-      </c>
-      <c r="W31" t="n">
-        <v>-12.6</v>
-      </c>
-      <c r="X31" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>-2.28991596638653</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>-5.05050505050505</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>13.9</v>
       </c>
     </row>
     <row r="32">
@@ -3622,43 +3622,43 @@
         <v>6.98</v>
       </c>
       <c r="T32" t="n">
+        <v>-3.15744861199407</v>
+      </c>
+      <c r="U32" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="V32" t="n">
+        <v>-14.2857142857143</v>
+      </c>
+      <c r="W32" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="X32" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AB32" t="n">
         <v>1.8</v>
       </c>
-      <c r="U32" t="n">
+      <c r="AC32" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="AD32" t="n">
         <v>22.093023255814</v>
       </c>
-      <c r="V32" t="n">
+      <c r="AE32" t="n">
+        <v>-12</v>
+      </c>
+      <c r="AF32" t="n">
         <v>5.7</v>
-      </c>
-      <c r="W32" t="n">
-        <v>-12</v>
-      </c>
-      <c r="X32" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>-3.15744861199407</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>-14.2857142857143</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>14.1</v>
       </c>
     </row>
     <row r="33">
@@ -3720,43 +3720,43 @@
         <v>5.65</v>
       </c>
       <c r="T33" t="n">
+        <v>-3.79589296826384</v>
+      </c>
+      <c r="U33" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="V33" t="n">
+        <v>43.6950146627566</v>
+      </c>
+      <c r="W33" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="X33" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AB33" t="n">
         <v>1.9</v>
       </c>
-      <c r="U33" t="n">
+      <c r="AC33" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="AD33" t="n">
         <v>25</v>
       </c>
-      <c r="V33" t="n">
+      <c r="AE33" t="n">
+        <v>-11</v>
+      </c>
+      <c r="AF33" t="n">
         <v>5.4</v>
-      </c>
-      <c r="W33" t="n">
-        <v>-11</v>
-      </c>
-      <c r="X33" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>-3.79589296826384</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>43.6950146627566</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>15.2</v>
       </c>
     </row>
     <row r="34">
@@ -3820,43 +3820,43 @@
         <v>6.06</v>
       </c>
       <c r="T34" t="n">
+        <v>-2.21039705280397</v>
+      </c>
+      <c r="U34" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-11.8942731277533</v>
+      </c>
+      <c r="W34" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="X34" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AB34" t="n">
         <v>2</v>
       </c>
-      <c r="U34" t="n">
+      <c r="AC34" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="AD34" t="n">
         <v>20.3166226912929</v>
       </c>
-      <c r="V34" t="n">
+      <c r="AE34" t="n">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="AF34" t="n">
         <v>5.5</v>
-      </c>
-      <c r="W34" t="n">
-        <v>-9.800000000000001</v>
-      </c>
-      <c r="X34" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>-2.21039705280397</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>-11.8942731277533</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>15.2</v>
       </c>
     </row>
     <row r="35">
@@ -3918,41 +3918,41 @@
         <v>4.85</v>
       </c>
       <c r="T35" t="n">
+        <v>-2.41026984542833</v>
+      </c>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="n">
+        <v>9.28571428571429</v>
+      </c>
+      <c r="W35" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="X35" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>-11.6</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AB35" t="n">
         <v>2</v>
       </c>
-      <c r="U35" t="n">
+      <c r="AC35" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AD35" t="n">
         <v>15.2912621359223</v>
       </c>
-      <c r="V35" t="n">
+      <c r="AE35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF35" t="n">
         <v>5.5</v>
-      </c>
-      <c r="W35" t="n">
-        <v>4</v>
-      </c>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="n">
-        <v>-2.41026984542833</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>-11.6</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>9.28571428571429</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>3.9</v>
       </c>
     </row>
     <row r="36">
@@ -4016,41 +4016,41 @@
         <v>3.87</v>
       </c>
       <c r="T36" t="n">
+        <v>-0.682448283216023</v>
+      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="n">
+        <v>12.15859030837</v>
+      </c>
+      <c r="W36" t="n">
+        <v>8</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>-5.9</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AB36" t="n">
         <v>2.5</v>
       </c>
-      <c r="U36" t="n">
+      <c r="AC36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AD36" t="n">
         <v>17.3697270471464</v>
       </c>
-      <c r="V36" t="n">
+      <c r="AE36" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF36" t="n">
         <v>4.4</v>
-      </c>
-      <c r="W36" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="n">
-        <v>-0.682448283216023</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>-5.9</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>12.15859030837</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>4.1</v>
       </c>
     </row>
     <row r="37">
@@ -4114,41 +4114,41 @@
         <v>3.47</v>
       </c>
       <c r="T37" t="n">
+        <v>-3.55220667384284</v>
+      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="n">
+        <v>12.9775280898876</v>
+      </c>
+      <c r="W37" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="X37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AB37" t="n">
         <v>2.9</v>
       </c>
-      <c r="U37" t="n">
+      <c r="AC37" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AD37" t="n">
         <v>17.7057356608479</v>
       </c>
-      <c r="V37" t="n">
+      <c r="AE37" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="AF37" t="n">
         <v>4.8</v>
-      </c>
-      <c r="W37" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="n">
-        <v>-3.55220667384284</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>-5.4</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>12.9775280898876</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -4212,41 +4212,41 @@
         <v>3.23</v>
       </c>
       <c r="T38" t="n">
+        <v>-3.74264087468461</v>
+      </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="n">
+        <v>8.888888888888889</v>
+      </c>
+      <c r="W38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB38" t="n">
         <v>3.1</v>
       </c>
-      <c r="U38" t="n">
+      <c r="AC38" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AD38" t="n">
         <v>15.8024691358025</v>
       </c>
-      <c r="V38" t="n">
+      <c r="AE38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF38" t="n">
         <v>2.6</v>
-      </c>
-      <c r="W38" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="n">
-        <v>-3.74264087468461</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>-5.1</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>8.888888888888889</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>5.7</v>
       </c>
     </row>
     <row r="39">
@@ -4310,41 +4310,41 @@
         <v>3.41</v>
       </c>
       <c r="T39" t="n">
+        <v>-6.59364731653889</v>
+      </c>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="n">
+        <v>-14.2222222222222</v>
+      </c>
+      <c r="W39" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="n">
         <v>3.2</v>
       </c>
-      <c r="U39" t="n">
+      <c r="AC39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD39" t="n">
         <v>13.5802469135802</v>
       </c>
-      <c r="V39" t="n">
+      <c r="AE39" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AF39" t="n">
         <v>2.9</v>
-      </c>
-      <c r="W39" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="n">
-        <v>-6.59364731653889</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>-5.1</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>-2.1</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>-14.2222222222222</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>3.5</v>
       </c>
     </row>
     <row r="40">
@@ -4408,41 +4408,41 @@
         <v>3.89</v>
       </c>
       <c r="T40" t="n">
+        <v>-2.00400801603203</v>
+      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="n">
+        <v>-20</v>
+      </c>
+      <c r="W40" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AB40" t="n">
         <v>3.3</v>
       </c>
-      <c r="U40" t="n">
+      <c r="AC40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD40" t="n">
         <v>13.0864197530864</v>
       </c>
-      <c r="V40" t="n">
+      <c r="AE40" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AF40" t="n">
         <v>3.5</v>
-      </c>
-      <c r="W40" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="n">
-        <v>-2.00400801603203</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>-4.8</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>-3.1</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>-20</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>1.3</v>
       </c>
     </row>
     <row r="41">
@@ -4506,41 +4506,41 @@
         <v>4.15</v>
       </c>
       <c r="T41" t="n">
+        <v>-4.05346187554781</v>
+      </c>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="n">
+        <v>5.72687224669604</v>
+      </c>
+      <c r="W41" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AB41" t="n">
         <v>3.4</v>
       </c>
-      <c r="U41" t="n">
+      <c r="AC41" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="AD41" t="n">
         <v>12.2549019607843</v>
       </c>
-      <c r="V41" t="n">
+      <c r="AE41" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="AF41" t="n">
         <v>3.8</v>
-      </c>
-      <c r="W41" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="n">
-        <v>-4.05346187554781</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>-4.7</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>5.72687224669604</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>-2.5</v>
       </c>
     </row>
     <row r="42">
@@ -4604,41 +4604,41 @@
         <v>4.79</v>
       </c>
       <c r="T42" t="n">
+        <v>-4.94517308105785</v>
+      </c>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="n">
+        <v>2.12765957446809</v>
+      </c>
+      <c r="W42" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AB42" t="n">
         <v>3.5</v>
       </c>
-      <c r="U42" t="n">
+      <c r="AC42" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="AD42" t="n">
         <v>10</v>
       </c>
-      <c r="V42" t="n">
+      <c r="AE42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF42" t="n">
         <v>4.6</v>
-      </c>
-      <c r="W42" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="n">
-        <v>-4.94517308105785</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>-3.2</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>2.12765957446809</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>-3.8</v>
       </c>
     </row>
     <row r="43">
@@ -4702,41 +4702,41 @@
         <v>4.9748</v>
       </c>
       <c r="T43" t="n">
+        <v>-3.36980306345733</v>
+      </c>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="n">
+        <v>8.51063829787234</v>
+      </c>
+      <c r="W43" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AB43" t="n">
         <v>3.6</v>
       </c>
-      <c r="U43" t="n">
+      <c r="AC43" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="AD43" t="n">
         <v>15.952380952381</v>
       </c>
-      <c r="V43" t="n">
+      <c r="AE43" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="AF43" t="n">
         <v>5</v>
-      </c>
-      <c r="W43" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="n">
-        <v>-3.36980306345733</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>8.51063829787234</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>-4.8</v>
       </c>
     </row>
     <row r="44">
@@ -4800,41 +4800,41 @@
         <v>5.38</v>
       </c>
       <c r="T44" t="n">
+        <v>-3.44976282880552</v>
+      </c>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="n">
+        <v>14.6938775510204</v>
+      </c>
+      <c r="W44" t="n">
+        <v>5</v>
+      </c>
+      <c r="X44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AB44" t="n">
         <v>3.9</v>
       </c>
-      <c r="U44" t="n">
+      <c r="AC44" t="n">
+        <v>-6</v>
+      </c>
+      <c r="AD44" t="n">
         <v>19.5505617977528</v>
       </c>
-      <c r="V44" t="n">
+      <c r="AE44" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AF44" t="n">
         <v>4.7</v>
-      </c>
-      <c r="W44" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="n">
-        <v>-3.44976282880552</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>14.6938775510204</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>-6</v>
       </c>
     </row>
     <row r="45">
@@ -4898,43 +4898,43 @@
         <v>4.45</v>
       </c>
       <c r="T45" t="n">
+        <v>-4.26956885726244</v>
+      </c>
+      <c r="U45" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>18</v>
+      </c>
+      <c r="W45" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X45" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AB45" t="n">
         <v>4.2</v>
       </c>
-      <c r="U45" t="n">
+      <c r="AC45" t="n">
+        <v>-6.2</v>
+      </c>
+      <c r="AD45" t="n">
         <v>22.8070175438597</v>
       </c>
-      <c r="V45" t="n">
+      <c r="AE45" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AF45" t="n">
         <v>4.4</v>
-      </c>
-      <c r="W45" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="X45" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>-4.26956885726244</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>-3.3</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>-6.2</v>
       </c>
     </row>
     <row r="46">
@@ -4998,43 +4998,43 @@
         <v>4.06</v>
       </c>
       <c r="T46" t="n">
+        <v>-10.4161073825504</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>51.6339869281046</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-27.4</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>-23</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="AB46" t="n">
         <v>9.76459</v>
       </c>
-      <c r="U46" t="n">
+      <c r="AC46" t="n">
+        <v>-22.2</v>
+      </c>
+      <c r="AD46" t="n">
         <v>16.4210526315789</v>
       </c>
-      <c r="V46" t="n">
+      <c r="AE46" t="n">
+        <v>-20.9</v>
+      </c>
+      <c r="AF46" t="n">
         <v>-17.2</v>
-      </c>
-      <c r="W46" t="n">
-        <v>-20.9</v>
-      </c>
-      <c r="X46" t="n">
-        <v>-26.5</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>-10.4161073825504</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>-1.43</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>-10.1</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>-23</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>-27.4</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>51.6339869281046</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>-3.9</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>-22.2</v>
       </c>
     </row>
     <row r="47">
@@ -5096,43 +5096,43 @@
         <v>4.05</v>
       </c>
       <c r="T47" t="n">
+        <v>-12.754992484432</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-21.5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-8.48389630793401</v>
+      </c>
+      <c r="W47" t="n">
+        <v>-7.3</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-13</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-9.199999999999999</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-20.7</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="AB47" t="n">
         <v>9.1</v>
       </c>
-      <c r="U47" t="n">
+      <c r="AC47" t="n">
+        <v>-16.1</v>
+      </c>
+      <c r="AD47" t="n">
         <v>15.8562367864693</v>
       </c>
-      <c r="V47" t="n">
+      <c r="AE47" t="n">
+        <v>-26.6</v>
+      </c>
+      <c r="AF47" t="n">
         <v>-9</v>
-      </c>
-      <c r="W47" t="n">
-        <v>-26.6</v>
-      </c>
-      <c r="X47" t="n">
-        <v>-21.5</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>-12.754992484432</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>-1.21</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>-9.199999999999999</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>-20.7</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>-13</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>-8.48389630793401</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>-7.3</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>-16.1</v>
       </c>
     </row>
     <row r="48">
@@ -5196,43 +5196,43 @@
         <v>4.44</v>
       </c>
       <c r="T48" t="n">
+        <v>-5.37946428571429</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-14.7</v>
+      </c>
+      <c r="V48" t="n">
+        <v>13.3764296369965</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-7.4</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-9</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-15.4</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="AB48" t="n">
         <v>8.6</v>
       </c>
-      <c r="U48" t="n">
+      <c r="AC48" t="n">
+        <v>-17.7</v>
+      </c>
+      <c r="AD48" t="n">
         <v>12.9237288135593</v>
       </c>
-      <c r="V48" t="n">
+      <c r="AE48" t="n">
+        <v>-20.6</v>
+      </c>
+      <c r="AF48" t="n">
         <v>-7.1</v>
-      </c>
-      <c r="W48" t="n">
-        <v>-20.6</v>
-      </c>
-      <c r="X48" t="n">
-        <v>-14.7</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>-5.37946428571429</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>-8.300000000000001</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>-15.4</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>-9</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>13.3764296369965</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>-7.4</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>-17.7</v>
       </c>
     </row>
     <row r="49">
@@ -5296,43 +5296,43 @@
         <v>3.6831</v>
       </c>
       <c r="T49" t="n">
+        <v>-2.16251638269987</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>45.4081632653061</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-6.3</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-11.8</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="AB49" t="n">
         <v>8</v>
       </c>
-      <c r="U49" t="n">
+      <c r="AC49" t="n">
+        <v>-17.1</v>
+      </c>
+      <c r="AD49" t="n">
         <v>13.6460554371002</v>
       </c>
-      <c r="V49" t="n">
+      <c r="AE49" t="n">
+        <v>-13.2</v>
+      </c>
+      <c r="AF49" t="n">
         <v>-3.7</v>
-      </c>
-      <c r="W49" t="n">
-        <v>-13.2</v>
-      </c>
-      <c r="X49" t="n">
-        <v>-9.5</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>-2.16251638269987</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>-8.199999999999999</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>-11.8</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>-6.3</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>45.4081632653061</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>-17.1</v>
       </c>
     </row>
     <row r="50">
@@ -5396,43 +5396,43 @@
         <v>4.3439</v>
       </c>
       <c r="T50" t="n">
+        <v>3.89305816135084</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>18.1347150259067</v>
+      </c>
+      <c r="W50" t="n">
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-6.7</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-9.1</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-1.09</v>
+      </c>
+      <c r="AB50" t="n">
         <v>7.6</v>
       </c>
-      <c r="U50" t="n">
+      <c r="AC50" t="n">
+        <v>-14.6</v>
+      </c>
+      <c r="AD50" t="n">
         <v>16.0869565217391</v>
       </c>
-      <c r="V50" t="n">
+      <c r="AE50" t="n">
+        <v>-13</v>
+      </c>
+      <c r="AF50" t="n">
         <v>-1.7</v>
-      </c>
-      <c r="W50" t="n">
-        <v>-13</v>
-      </c>
-      <c r="X50" t="n">
-        <v>-4.4</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>3.89305816135084</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>-1.09</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>-6.7</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>-9.1</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>-3.4</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>18.1347150259067</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>-8.300000000000001</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>-14.6</v>
       </c>
     </row>
     <row r="51">
@@ -5496,43 +5496,43 @@
         <v>3.521</v>
       </c>
       <c r="T51" t="n">
+        <v>3.24926153147012</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-7.2</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="AB51" t="n">
         <v>7.3</v>
       </c>
-      <c r="U51" t="n">
+      <c r="AC51" t="n">
+        <v>-12.3</v>
+      </c>
+      <c r="AD51" t="n">
         <v>7.86026200873362</v>
       </c>
-      <c r="V51" t="n">
+      <c r="AE51" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AF51" t="n">
         <v>0.7</v>
-      </c>
-      <c r="W51" t="n">
-        <v>-9.5</v>
-      </c>
-      <c r="X51" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>3.24926153147012</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>-7.2</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>-6.1</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>83.3333333333333</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>-12.3</v>
       </c>
     </row>
     <row r="52">
@@ -5596,43 +5596,43 @@
         <v>3.677</v>
       </c>
       <c r="T52" t="n">
+        <v>2.69467915049101</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-16.6666666666667</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AB52" t="n">
         <v>7</v>
       </c>
-      <c r="U52" t="n">
+      <c r="AC52" t="n">
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="AD52" t="n">
         <v>2.18340611353712</v>
       </c>
-      <c r="V52" t="n">
+      <c r="AE52" t="n">
+        <v>-7.4</v>
+      </c>
+      <c r="AF52" t="n">
         <v>1.7</v>
-      </c>
-      <c r="W52" t="n">
-        <v>-7.4</v>
-      </c>
-      <c r="X52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>2.69467915049101</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>-6.5</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>-3.9</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>-16.6666666666667</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>-9.300000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -5696,43 +5696,43 @@
         <v>3.6579</v>
       </c>
       <c r="T53" t="n">
+        <v>6.94413028726531</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="W53" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-5.8</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="AB53" t="n">
         <v>6.6</v>
       </c>
-      <c r="U53" t="n">
+      <c r="AC53" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="AD53" t="n">
         <v>0.216450216450216</v>
       </c>
-      <c r="V53" t="n">
+      <c r="AE53" t="n">
+        <v>-6.9</v>
+      </c>
+      <c r="AF53" t="n">
         <v>3.1</v>
-      </c>
-      <c r="W53" t="n">
-        <v>-6.9</v>
-      </c>
-      <c r="X53" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>6.94413028726531</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>-5.8</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>-3.1</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>-6.1</v>
       </c>
     </row>
     <row r="54">
@@ -5796,43 +5796,43 @@
         <v>3.5638</v>
       </c>
       <c r="T54" t="n">
+        <v>3.66847826086959</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>29.4117647058824</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.597332</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="AB54" t="n">
         <v>6.1</v>
       </c>
-      <c r="U54" t="n">
+      <c r="AC54" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="AD54" t="n">
         <v>-1.84804928131417</v>
       </c>
-      <c r="V54" t="n">
+      <c r="AE54" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="AF54" t="n">
         <v>3.3</v>
-      </c>
-      <c r="W54" t="n">
-        <v>-6.5</v>
-      </c>
-      <c r="X54" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>3.66847826086959</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>-5.5</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>-1.7</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>2.597332</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>29.4117647058824</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>-4.4</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>-4.7</v>
       </c>
     </row>
     <row r="55">
@@ -5896,43 +5896,43 @@
         <v>3.3939</v>
       </c>
       <c r="T55" t="n">
+        <v>1.07190710138454</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-26.6903914590747</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X55" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-4.9</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="AB55" t="n">
         <v>5.6</v>
       </c>
-      <c r="U55" t="n">
+      <c r="AC55" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="AD55" t="n">
         <v>-8.64661654135338</v>
       </c>
-      <c r="V55" t="n">
+      <c r="AE55" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="AF55" t="n">
         <v>4.2</v>
-      </c>
-      <c r="W55" t="n">
-        <v>-6.1</v>
-      </c>
-      <c r="X55" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>1.07190710138454</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>-4.9</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>-26.6903914590747</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>-3.3</v>
       </c>
     </row>
     <row r="56">
@@ -5996,43 +5996,43 @@
         <v>4.3129</v>
       </c>
       <c r="T56" t="n">
+        <v>5.90292960209881</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-8.474576271186439</v>
+      </c>
+      <c r="W56" t="n">
+        <v>-14.4</v>
+      </c>
+      <c r="X56" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="AB56" t="n">
         <v>5.2</v>
       </c>
-      <c r="U56" t="n">
+      <c r="AC56" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="AD56" t="n">
         <v>-9.28571428571429</v>
       </c>
-      <c r="V56" t="n">
+      <c r="AE56" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="AF56" t="n">
         <v>4.8</v>
-      </c>
-      <c r="W56" t="n">
-        <v>-5.5</v>
-      </c>
-      <c r="X56" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>5.90292960209881</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>-8.474576271186439</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>-14.4</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>-1.5</v>
       </c>
     </row>
     <row r="57">
@@ -6096,43 +6096,43 @@
         <v>3.3677</v>
       </c>
       <c r="T57" t="n">
+        <v>9.97902307461796</v>
+      </c>
+      <c r="U57" t="n">
+        <v>45</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-56.0344827586207</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-11.978366</v>
+      </c>
+      <c r="X57" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB57" t="n">
         <v>-0.7</v>
       </c>
-      <c r="U57" t="n">
+      <c r="AC57" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="AD57" t="n">
         <v>-13.3815551537071</v>
       </c>
-      <c r="V57" t="n">
+      <c r="AE57" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF57" t="n">
         <v>43.2</v>
-      </c>
-      <c r="W57" t="n">
-        <v>22</v>
-      </c>
-      <c r="X57" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>9.97902307461796</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>-56.0344827586207</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>-11.978366</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>54.3</v>
       </c>
     </row>
     <row r="58">
@@ -6196,43 +6196,43 @@
         <v>4.4802</v>
       </c>
       <c r="T58" t="n">
+        <v>11.1247846418902</v>
+      </c>
+      <c r="U58" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-11.1587982832618</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="X58" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB58" t="n">
         <v>-0.1</v>
       </c>
-      <c r="U58" t="n">
+      <c r="AC58" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="AD58" t="n">
         <v>-11.1313868613139</v>
       </c>
-      <c r="V58" t="n">
+      <c r="AE58" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="AF58" t="n">
         <v>32.71</v>
-      </c>
-      <c r="W58" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="X58" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>11.1247846418902</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>-11.1587982832618</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>45.2</v>
       </c>
     </row>
     <row r="59">
@@ -6296,41 +6296,41 @@
         <v>4.8455</v>
       </c>
       <c r="T59" t="n">
+        <v>5.04836046237317</v>
+      </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="n">
+        <v>26.7543859649123</v>
+      </c>
+      <c r="W59" t="n">
+        <v>-9.1</v>
+      </c>
+      <c r="X59" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AB59" t="n">
         <v>0.3</v>
       </c>
-      <c r="U59" t="n">
+      <c r="AC59" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="AD59" t="n">
         <v>2.62664165103189</v>
       </c>
-      <c r="V59" t="n">
+      <c r="AE59" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AF59" t="n">
         <v>29.7</v>
-      </c>
-      <c r="W59" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="n">
-        <v>5.04836046237317</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>35.08</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>26.7543859649123</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>-9.1</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>41.4</v>
       </c>
     </row>
     <row r="60">
@@ -6393,22 +6393,22 @@
       <c r="S60" t="n">
         <v>5.0605</v>
       </c>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="n">
-        <v>3.93996247654784</v>
-      </c>
-      <c r="V60" t="inlineStr"/>
+      <c r="T60" t="n">
+        <v>-1.29493190444295</v>
+      </c>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="n">
+        <v>-17.8947368421053</v>
+      </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="n">
-        <v>-1.29493190444295</v>
-      </c>
+      <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="n">
-        <v>-17.8947368421053</v>
+        <v>3.93996247654784</v>
       </c>
       <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="inlineStr"/>
